--- a/biology/Médecine/CX-717/CX-717.xlsx
+++ b/biology/Médecine/CX-717/CX-717.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">CX717 est un ampakine composé créé en 1996 au cortex pharmaceutique. Un modulateur allostérique des récepteurs AMPA en améliorant le fonctionnement cognitif et de la mémoire. 
 En 2005, la Food and Drug Administration (FDA) a accepté Cortex Pharmaceuticals pour lancer des essais cliniques pilotes de phase II aux États-Unis.
